--- a/test/functional/xlsx_files/chart_column05.xlsx
+++ b/test/functional/xlsx_files/chart_column05.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Foo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -148,24 +148,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="47292800"/>
-        <c:axId val="47295104"/>
+        <c:axId val="50010003"/>
+        <c:axId val="50010004"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47292800"/>
+        <c:axId val="50010003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47295104"/>
+        <c:crossAx val="50010004"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47295104"/>
+        <c:axId val="50010004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -173,7 +173,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47292800"/>
+        <c:crossAx val="50010003"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/test/functional/xlsx_files/chart_column05.xlsx
+++ b/test/functional/xlsx_files/chart_column05.xlsx
@@ -148,24 +148,34 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50010003"/>
-        <c:axId val="50010004"/>
+        <c:axId val="47292800"/>
+        <c:axId val="47295104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50010003"/>
+        <c:axId val="47292800"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010004"/>
+        <c:crossAx val="47295104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010004"/>
+        <c:axId val="47295104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -173,7 +183,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010003"/>
+        <c:crossAx val="47292800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
